--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -15,26 +15,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
+    <t>Danve</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>mobile number added sucessfully</t>
+  </si>
+  <si>
+    <t>india</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -50,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,12 +75,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,49 +412,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>